--- a/Architecture/Coursera_Nand2Tetris/Notes.xlsx
+++ b/Architecture/Coursera_Nand2Tetris/Notes.xlsx
@@ -3,17 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285663E8-0BA0-44F1-BDBE-23A7B8800C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819DCAE-47FA-48C7-AA5A-F17A4378554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二进制有符号整数表示" sheetId="1" r:id="rId1"/>
     <sheet name="Hack平台体系结构" sheetId="2" r:id="rId2"/>
     <sheet name="虚拟机" sheetId="3" r:id="rId3"/>
     <sheet name="虚拟机2" sheetId="4" r:id="rId4"/>
+    <sheet name="编译器" sheetId="5" r:id="rId5"/>
+    <sheet name="词法分析器自动机表格版" sheetId="7" r:id="rId6"/>
+    <sheet name="词法分析器自动机" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +25,158 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(起始状态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(boo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(boole)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(boolea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(boolean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(标识符待定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(标识符 确定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(boolean 确定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字常量确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(字符串常量待定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（字符串常量 确定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +191,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,9 +239,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11366,6 +11566,2230 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673E8F55-FDDE-5636-5C92-DF3649BB557F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3413760" y="312420"/>
+          <a:ext cx="14973300" cy="25542240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>源程序的语法分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>第一步</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>词法分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(lexical analysis)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>、扫描</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(scanning)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>、或字元化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(tokenizing)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>将字符流分组成字元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>由语言语法所定义</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>，忽略空格和注释</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>生成字元流，作为编译器的输入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>字元的种类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>			1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>关键字 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>例如 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>while)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>			2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>标识符 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>例如 变量名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>			3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>操作符 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>&lt;=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>编程语言指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>允许的字元类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>准确语法规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>用于将字元组合成正确的程序结构</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>上下文无关语法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>几乎所有的编程语言，都可以使用上下文无关文法来描述</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>是一组规则，用来指定语言中的语法元素如何用更简单的元素组成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>每种语法可以从两方面考察</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>从声明的观点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>					</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>语法规定了可行的方案，将字元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>终结符</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>组合成更高级的语法元素</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>非终结符</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>从分析的观点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>					</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>语法是用于执行反向任务的规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>字元流 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>非终结符 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>较低级的非终结符 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>不能继续分解的终结符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>第二步</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>语法分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>检查语法是否将所输入的文本看做合法输入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>“分析给定的文本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>" == </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>决定文本和给定语法规则之间的一致性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>语法分析树</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>导出树</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>的树状结果 来描述文本的语法结构</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>递归下降分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>用于构建语法分析树的算法之一</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>应用由语法规则描述的嵌套结构来尝试递归的分析字元流</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	Jack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>语言语法分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>终结符</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>(5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>大种类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>关键字</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'boolean',  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				'class', 'constructor', </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'char',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				'do',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				'else',  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'false',  'field'  ,  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>'function',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'int',  'if',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				'let',   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				'method', </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				'null',  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				'return'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				'static',  		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				'true',  'this',</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				'var',  'void',  				</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				'while',  			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>			2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>符号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>				'{'        '}'        '('        ')'        '['        ']'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>'.'        ','</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>';'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>'+'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/'       '&amp;'       '|'	    '&lt;'       '&gt;'       '='       '~'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>整数常量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(integer constant)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>直</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>32767</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的十进制数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字符串常量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(string constant)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				' " ' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一系列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Unicode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字符</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不包括双引号和换行符</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' " '</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>标识符</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(identifier)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>由一系列字母、数字、下划线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>('_')</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>组成，不能以数字开头</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上下文无关文法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			===== </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>程序结构 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=====</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			class		-&gt;	'Class' className '{' classVarDec* subroutineDec* '}'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			classVarDec	-&gt;	('static' | 'field') type varName (',' varName)* ';'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			type		-&gt;	'int' | 'char' | 'boolean' | className</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			subroutineDec	-&gt;	('constructor' | 'function' | 'method') ('void' | type) subroutineName '(' parameterList ')' subroutineBody</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			parameterList	-&gt;	(type varName (',' type varName)* )?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			subroutineBody	-&gt;	'{' varDec* statements '}'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			varDec		-&gt;	'var' type varName (',' varName)* ';'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			className		-&gt;	Id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			subroutineName	-&gt;	Id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			varName		-&gt;	Id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			===== </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>语句 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=====</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			statements	-&gt;	statement*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			statement		-&gt;	letStatement | ifStatement | whileStatement | doStatement | returnStatement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			letStatement	-&gt;	'let' varName ('[' expression ']')? '=' expression ';'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			ifStataement	-&gt;	'if' '(' expression ')' '{' statements '}' ('else' '{' statements '}')?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			whileStatement	-&gt;	'while' '(' expression ')' '{' statements '}'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			doStatement	-&gt;	'do' subroutineCall ';'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			returnStatement	-&gt;	'return' (expression)? ';'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			===== </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表达式 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=====</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			expression		-&gt;	term (op term)*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			term		-&gt;	integerConstant | stringConstant | keywordConstant | varName | varName '[' expression ']' |</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>						subroutineCall | '(' expression ')' | unaryOp term</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			subroutineCall	-&gt;	subroutineName '(' expressionList ')' | (className  | varName) '.' subroutineName '(' expressionList ')'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			expressionList	-&gt;	(expression (',' expression)*)?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			op		-&gt;	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>‘ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>| '*' | '/' | '&amp;' | '|' | '&lt;' | '&gt;' | '='</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			unaryOp		-&gt;	'-' | '~'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			KeywordConstant	-&gt;	'true' | 'false' | 'null' | this'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BB073C-FADD-47A2-581A-48D15C8ED3DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="228600"/>
+          <a:ext cx="18516600" cy="10386060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884FEE83-0845-9BFD-B4D3-A7059B550F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="1135380"/>
+          <a:ext cx="1668780" cy="1120140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>1(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>起始状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11637,7 +14061,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -11660,7 +14084,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -11677,13 +14101,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8666964-F89E-4B72-8951-75D0A3085E9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A435" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -11706,7 +14130,382 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2184C83-614B-44C4-8CA1-B4979504C28B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C341022A-7392-44AE-AF2F-BC62CAD47DC0}">
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" customWidth="1"/>
+    <col min="9" max="14" width="8.88671875" style="4"/>
+    <col min="15" max="16" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44825F5A-5C81-4C12-B612-209AC3938AC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
